--- a/data/datasets_data - 2025-11-01.xlsx
+++ b/data/datasets_data - 2025-11-01.xlsx
@@ -638,9 +638,24 @@
           <t>Реєстр затверджених експортних потужностей (об’єктів)*</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Реєстр затверджених експортних потужностей</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>f29d71d0-19dd-4663-8935-4d402fac6574</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>відсутній</t>
+          <t>наявний</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>no longer updated</t>
         </is>
       </c>
       <c r="I5" t="b">
@@ -656,6 +671,12 @@
           <t>обов'язковий</t>
         </is>
       </c>
+      <c r="M5" s="2">
+        <v>43906</v>
+      </c>
+      <c r="N5" s="2">
+        <v>45716</v>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>2025-11-01</t>
@@ -663,7 +684,7 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>набір відсутній</t>
+          <t>не оновлюється</t>
         </is>
       </c>
     </row>
@@ -1188,9 +1209,24 @@
           <t>Інформація з автоматизованої системи виконавчого провадження*</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Інформація з автоматизованої системи виконавчого провадження</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>22aef563-3e87-4ed9-92e8-d764dc02f426</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>відсутній</t>
+          <t>наявний</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>immediately after making changes</t>
         </is>
       </c>
       <c r="I16" t="b">
@@ -1206,6 +1242,12 @@
           <t>обов'язковий</t>
         </is>
       </c>
+      <c r="M16" s="2">
+        <v>43811</v>
+      </c>
+      <c r="N16" s="2">
+        <v>45962</v>
+      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>2025-11-01</t>
@@ -1213,7 +1255,7 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>набір відсутній</t>
+          <t>вчасно</t>
         </is>
       </c>
     </row>
